--- a/output.xlsx
+++ b/output.xlsx
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>6.47</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
@@ -470,7 +470,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fossil Hunting</t>
+          <t>Book Club</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Faymill</t>
+          <t>Shorebeach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
@@ -498,7 +498,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Bussiness analyst</t>
+          <t>Service desk</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.25</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Genealogy</t>
+          <t>Art Collecting</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Shorebeach</t>
+          <t>Deerland</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Backend</t>
+          <t>Networking</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.35</v>
+        <v>6.78</v>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Antiquing</t>
+          <t>Shell Fishing</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Woodviolet</t>
+          <t>Snownesse</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>It Support</t>
+          <t>Aerospace</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.52</v>
+        <v>4.23</v>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Quilting</t>
+          <t>Archaeology</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Faymill</t>
+          <t>Shorebeach</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Backend</t>
+          <t>It Support</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.210000000000001</v>
+        <v>7.85</v>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Designing and Making Clothes</t>
+          <t>Playing The Stock Market</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Shorebeach</t>
+          <t>Deerland</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>UI/UX</t>
+          <t>Chip Designing</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.779999999999999</v>
+        <v>7.25</v>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Boxing</t>
+          <t>Model Railroads</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Woodviolet</t>
+          <t>Snownesse</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>It Support</t>
+          <t>Support</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.140000000000001</v>
+        <v>7.52</v>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cosplaying</t>
+          <t>Sports Memorabilia Collecting</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Coldbeach</t>
+          <t>Shorebeach</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>UI/UX</t>
+          <t>Chip Designing</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.16</v>
+        <v>3.25</v>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fossil Hunting</t>
+          <t>Billiards</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bluehaven</t>
+          <t>Deerland</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>It Support</t>
+          <t>Aerospace</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Vintage Clothing Collecting</t>
+          <t>Canoeing</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Glasslake</t>
+          <t>Snownesse</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>It Support</t>
+          <t>Backend</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Playing Chess</t>
+          <t>Drawing</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Doracre</t>
+          <t>Marshmill</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Designing and Making Clothes</t>
+          <t>Playing The Stock Market</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Silverkeep</t>
+          <t>Snowness</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>It Support</t>
+          <t>Chip Designing</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Boxing</t>
+          <t>Model Railroads</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Barrowmeadow</t>
+          <t>Whitecrest</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cosplaying</t>
+          <t>Sports Memorabilia Collecting</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Swynhall</t>
+          <t>Doracre</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>It Support</t>
+          <t>Aerospace</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Furniture Building</t>
+          <t>Art Collecting</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Coldpine</t>
+          <t>Silverkeep</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>UI/UX</t>
+          <t>Chip Designing</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LEGO</t>
+          <t>Shell Fishing</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Northbarrow</t>
+          <t>Barrowmeadow</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Aerospace</t>
+          <t>It Support</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Amateur Radio</t>
+          <t>Archaeology</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Esterbourne</t>
+          <t>Northbarrow</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>It Support</t>
+          <t>Aerospace</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Playing The Stock Market</t>
+          <t>Sudoku</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Corbourne</t>
+          <t>Coldbeach</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>UI/UX</t>
+          <t>Chip Designing</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Model Railroads</t>
+          <t>Crabbing</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Coldbeach</t>
+          <t>Bluehaven</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Embedded</t>
+          <t>UI/UX</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sports Memorabilia Collecting</t>
+          <t>Kayaking</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Aldmerrow</t>
+          <t>Bluehaven</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Embedded</t>
+          <t>Aerospace</t>
         </is>
       </c>
     </row>
